--- a/ECE 411 BoM.xlsx
+++ b/ECE 411 BoM.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris_000\Dropbox\Documents\School Documents\ECE 411 Practicum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{30B90BA7-79EB-4DF3-87CF-161EDC11ABFC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C46D208-E864-40D4-BB32-FF6640F7163D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" xr2:uid="{270A51C2-A2D3-41F6-A80B-D4A29DE6CC56}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="Tbl_BoM">Table1[]</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="22">
   <si>
     <t>Bill of Materials</t>
   </si>
@@ -73,14 +76,39 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>Sum</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Running Total</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>Landing Gear</t>
+  </si>
+  <si>
+    <t>DIY Plane Parts Retractable Landing Gear With Wheels Levers Screws 1KG Tolerance</t>
+  </si>
+  <si>
+    <t>Ordered?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -99,12 +127,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -119,18 +159,58 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="8" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="8" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="7">
+    <dxf>
+      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -141,6 +221,23 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4C9A0F86-AFB2-44A7-BFCD-E6FB962C0151}" name="Table1" displayName="Table1" ref="A2:F8" totalsRowCount="1" headerRowDxfId="6">
+  <autoFilter ref="A2:F7" xr:uid="{7ABD7FDF-07E0-45E6-8BBE-37654BB48947}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{E12AEBC6-C6D6-440C-82A2-8E22CAE994D1}" name="Part" totalsRowLabel="Total"/>
+    <tableColumn id="2" xr3:uid="{6CB6176A-8954-4CF0-A16D-E7AABE893E3A}" name="Qty."/>
+    <tableColumn id="3" xr3:uid="{4B2E9FAB-EBE7-42F2-AC44-6D012A983ED8}" name="Digikey Part Number"/>
+    <tableColumn id="4" xr3:uid="{699020E1-B7BD-4D2A-B433-82F0013FE45A}" name="Price" totalsRowFunction="sum" dataDxfId="5" totalsRowDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{797E2835-45FA-4209-982E-97163C44FAC0}" name="Total" totalsRowFunction="sum" dataDxfId="4" totalsRowDxfId="1">
+      <calculatedColumnFormula>B3*D3</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{DD13EB28-1113-45D6-8706-D15A11A54393}" name="Ordered?" dataDxfId="3" totalsRowDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -440,43 +537,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91E1BD2E-BE66-4D4A-BED6-FB2102176C8D}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25.21875" customWidth="1"/>
     <col min="3" max="3" width="25.21875" customWidth="1"/>
+    <col min="4" max="5" width="14.6640625" customWidth="1"/>
+    <col min="6" max="6" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F2" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -486,15 +588,16 @@
       <c r="C3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="2">
         <v>5.95</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="2">
         <f>B3*D3</f>
         <v>71.400000000000006</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F3" s="5"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -504,15 +607,16 @@
       <c r="C4" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <v>4.2</v>
       </c>
-      <c r="E4" s="3">
-        <f t="shared" ref="E4:E6" si="0">B4*D4</f>
+      <c r="E4" s="2">
+        <f t="shared" ref="E4:E7" si="0">B4*D4</f>
         <v>16.8</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F4" s="5"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -522,42 +626,74 @@
       <c r="C5" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <v>10.86</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="2">
         <f t="shared" si="0"/>
         <v>43.44</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F5" s="5"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B6">
         <v>4</v>
       </c>
       <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="2">
+        <v>12</v>
+      </c>
+      <c r="E6" s="2">
+        <f>B6*D6</f>
+        <v>48</v>
+      </c>
+      <c r="F6" s="6"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D7" s="2">
         <v>0.57999999999999996</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E7" s="2">
         <f t="shared" si="0"/>
         <v>2.3199999999999998</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E15" s="2" t="s">
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E16" s="3">
-        <f>SUM(E3:E15)</f>
-        <v>133.95999999999998</v>
-      </c>
+      <c r="D8" s="4">
+        <f>SUBTOTAL(109,Table1[Price])</f>
+        <v>33.589999999999996</v>
+      </c>
+      <c r="E8" s="2">
+        <f>SUBTOTAL(109,Table1[Total])</f>
+        <v>181.95999999999998</v>
+      </c>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="17" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="F18" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -565,5 +701,8 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/ECE 411 BoM.xlsx
+++ b/ECE 411 BoM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris_000\Dropbox\Documents\School Documents\ECE 411 Practicum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C46D208-E864-40D4-BB32-FF6640F7163D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34E356FC-718B-4142-90D0-09A0AEA1A64B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" xr2:uid="{270A51C2-A2D3-41F6-A80B-D4A29DE6CC56}"/>
+    <workbookView xWindow="28692" yWindow="-108" windowWidth="24216" windowHeight="12996" xr2:uid="{270A51C2-A2D3-41F6-A80B-D4A29DE6CC56}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,17 +34,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="22">
-  <si>
-    <t>Bill of Materials</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="101">
   <si>
     <t>Servo Motors</t>
   </si>
   <si>
-    <t>Digikey Part Number</t>
-  </si>
-  <si>
     <t>Part</t>
   </si>
   <si>
@@ -63,9 +57,6 @@
     <t>1855-1063-ND</t>
   </si>
   <si>
-    <t>Price</t>
-  </si>
-  <si>
     <t>USB Connector</t>
   </si>
   <si>
@@ -78,39 +69,292 @@
     <t>Total</t>
   </si>
   <si>
-    <t>Sum</t>
-  </si>
-  <si>
-    <t>Average</t>
-  </si>
-  <si>
-    <t>Running Total</t>
-  </si>
-  <si>
-    <t>Count</t>
-  </si>
-  <si>
-    <t>Column1</t>
-  </si>
-  <si>
-    <t>Landing Gear</t>
-  </si>
-  <si>
-    <t>DIY Plane Parts Retractable Landing Gear With Wheels Levers Screws 1KG Tolerance</t>
-  </si>
-  <si>
     <t>Ordered?</t>
+  </si>
+  <si>
+    <t>Website</t>
+  </si>
+  <si>
+    <t>Digikey</t>
+  </si>
+  <si>
+    <t>Rectangular Connectors</t>
+  </si>
+  <si>
+    <t>67996-206HLF</t>
+  </si>
+  <si>
+    <t>6-pin head connector</t>
+  </si>
+  <si>
+    <t>Unit Price</t>
+  </si>
+  <si>
+    <t>Landing Gear Bill of Materials</t>
+  </si>
+  <si>
+    <t>Paid?</t>
+  </si>
+  <si>
+    <t>Manufacturer</t>
+  </si>
+  <si>
+    <t>Adafruit Industries LLC</t>
+  </si>
+  <si>
+    <t>Manufacturer Part Number</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>ATMEGA32U4-AUR</t>
+  </si>
+  <si>
+    <t>Microchip Technology</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Website Part Number</t>
+  </si>
+  <si>
+    <t>SHARP / SoCle Technology</t>
+  </si>
+  <si>
+    <t>GP2Y0D02YK0F</t>
+  </si>
+  <si>
+    <t>Optical Sensor 80cm Digital Output</t>
+  </si>
+  <si>
+    <t>On Shore Technology Inc</t>
+  </si>
+  <si>
+    <t>USB-B1HSW6</t>
+  </si>
+  <si>
+    <t>USB - B Receptacle Connector 4 Position Through Hole, Right Angle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Positional Rotation DC Motor Servomotor, RC (Hobby) 5VDC</t>
+  </si>
+  <si>
+    <t>AVR AVR® ATmega Microcontroller IC 8-Bit 16MHz 32KB (16K x 16) FLASH 44-TQFP (10x10)</t>
+  </si>
+  <si>
+    <t>609-3210-ND</t>
+  </si>
+  <si>
+    <t>Amphenol ICC (FCI)</t>
+  </si>
+  <si>
+    <t>Connector Header Through Hole 6 position 0.100" (2.54mm)</t>
+  </si>
+  <si>
+    <t>732-5316-ND</t>
+  </si>
+  <si>
+    <t>Würth Elektronik</t>
+  </si>
+  <si>
+    <t>Connector Header Through Hole 3 position 0.100" (2.54mm)</t>
+  </si>
+  <si>
+    <t>1528-2289-ND</t>
+  </si>
+  <si>
+    <t>5xAA Battery Holder</t>
+  </si>
+  <si>
+    <t>Battery Holder (Open) AA 5 Cell Wire Leads - 5" (127.00mm)</t>
+  </si>
+  <si>
+    <t>SY628-ND</t>
+  </si>
+  <si>
+    <t>Batteries</t>
+  </si>
+  <si>
+    <t>FDK America Inc</t>
+  </si>
+  <si>
+    <t>LR6 C (2S)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	AA Alkaline Manganese Dioxide 1.5V Battery Non-Rechargeable (Primary)</t>
+  </si>
+  <si>
+    <t>Capacitor - 470p</t>
+  </si>
+  <si>
+    <t>Capacitor - 100n</t>
+  </si>
+  <si>
+    <t>Capacitor - 4.7u</t>
+  </si>
+  <si>
+    <t>Capacitor 30p</t>
+  </si>
+  <si>
+    <t>Kemet</t>
+  </si>
+  <si>
+    <t>311-1124-1-ND</t>
+  </si>
+  <si>
+    <t>Yageo</t>
+  </si>
+  <si>
+    <t>CC0805KRX7R9BB471</t>
+  </si>
+  <si>
+    <t>470pF ±10% 50V Ceramic Capacitor X7R 0805 (2012 Metric)</t>
+  </si>
+  <si>
+    <t>399-1177-1-ND</t>
+  </si>
+  <si>
+    <t>C0805C104Z5VACTU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	0.1µF -20%, +80% 50V Ceramic Capacitor Y5V (F) 0805 (2012 Metric)</t>
+  </si>
+  <si>
+    <t>311-1896-6-ND</t>
+  </si>
+  <si>
+    <t>CC0805MKX5R5BB475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	4.7µF ±20% 6.3V Ceramic Capacitor X5R 0805 (2012 Metric)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	311-4234-1-ND</t>
+  </si>
+  <si>
+    <t>CC0805JRNPO9BN300</t>
+  </si>
+  <si>
+    <t>30pF ±5% 50V Ceramic Capacitor C0G, NP0 0805 (2012 Metric)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	MBRA140T3GOSCT-ND</t>
+  </si>
+  <si>
+    <t>Diodes 40V 1A SMA</t>
+  </si>
+  <si>
+    <t>LED Green Clear 0805 SMD</t>
+  </si>
+  <si>
+    <t>732-4983-1-ND</t>
+  </si>
+  <si>
+    <t>150080GS75000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Green 520nm LED Indication - Discrete 3.2V 0805 (2012 Metric)</t>
+  </si>
+  <si>
+    <t>ON Semiconductor</t>
+  </si>
+  <si>
+    <t>MBRA140T3G</t>
+  </si>
+  <si>
+    <t>Diode Schottky 40V 1A Surface Mount SMA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	SWITCH TACTILE SPST-NO 0.05A 12V</t>
+  </si>
+  <si>
+    <t>CKN10361CT-ND</t>
+  </si>
+  <si>
+    <t>RS-187R05A2-DS MT RT</t>
+  </si>
+  <si>
+    <t>C&amp;K</t>
+  </si>
+  <si>
+    <t>Tactile Switch SPST-NO Top Actuated Surface Mount</t>
+  </si>
+  <si>
+    <t>MCP73831T-2ACI/OTCT-ND</t>
+  </si>
+  <si>
+    <t>MCP73831T-2ACI/OT</t>
+  </si>
+  <si>
+    <t>Charger IC Lithium Ion/Polymer SOT-23-5</t>
+  </si>
+  <si>
+    <t>IC CONTROLLR LI-ION 4.2V SOT23-5</t>
+  </si>
+  <si>
+    <t>576-1281-1-ND</t>
+  </si>
+  <si>
+    <t>MIC5219-3.3YM5-TR</t>
+  </si>
+  <si>
+    <t>IC REG LINEAR 3.3V 500MA SOT23-5</t>
+  </si>
+  <si>
+    <t>Linear Voltage Regulator IC  1 Output  500mA SOT-23-5</t>
+  </si>
+  <si>
+    <t>XC2081CT-ND</t>
+  </si>
+  <si>
+    <t>ECS Inc.</t>
+  </si>
+  <si>
+    <t>ECS-160-18-5PX-TR</t>
+  </si>
+  <si>
+    <t>CRYSTAL 16.000 MHZ 18PF SMD</t>
+  </si>
+  <si>
+    <t>16MHz ±30ppm Crystal 18pF 40 Ohms HC-49/US</t>
+  </si>
+  <si>
+    <t>Ece 411 Practicum / Fall '19
+Date: 3-Nov-2019</t>
+  </si>
+  <si>
+    <t>Plastic Roll 2mm Dia Shaft Toys Wheel and 25Pcs STEM Shaft Round Rod Axles</t>
+  </si>
+  <si>
+    <t>Amazon</t>
+  </si>
+  <si>
+    <t>B07QRX23TC</t>
+  </si>
+  <si>
+    <t>EUDAX</t>
+  </si>
+  <si>
+    <t>[--]</t>
+  </si>
+  <si>
+    <t>Shaft Dia: 1.95mm/0.08"". Suitable for 2mm shaft
+Diameter: 42mm / 1.65 "".
+Tire width: 19mm / 0.74 "".
+STEM shaft Features：
+-Length 100mm/3.9""
+-Diameter 2mm/0.08""</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
-    <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.000_);[Red]\(&quot;$&quot;#,##0.000\)"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -122,6 +366,28 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -147,7 +413,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -155,33 +421,124 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="8" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="8" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="17">
     <dxf>
-      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
@@ -191,6 +548,222 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -209,6 +782,22 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -224,17 +813,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4C9A0F86-AFB2-44A7-BFCD-E6FB962C0151}" name="Table1" displayName="Table1" ref="A2:F8" totalsRowCount="1" headerRowDxfId="6">
-  <autoFilter ref="A2:F7" xr:uid="{7ABD7FDF-07E0-45E6-8BBE-37654BB48947}"/>
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{E12AEBC6-C6D6-440C-82A2-8E22CAE994D1}" name="Part" totalsRowLabel="Total"/>
-    <tableColumn id="2" xr3:uid="{6CB6176A-8954-4CF0-A16D-E7AABE893E3A}" name="Qty."/>
-    <tableColumn id="3" xr3:uid="{4B2E9FAB-EBE7-42F2-AC44-6D012A983ED8}" name="Digikey Part Number"/>
-    <tableColumn id="4" xr3:uid="{699020E1-B7BD-4D2A-B433-82F0013FE45A}" name="Price" totalsRowFunction="sum" dataDxfId="5" totalsRowDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{797E2835-45FA-4209-982E-97163C44FAC0}" name="Total" totalsRowFunction="sum" dataDxfId="4" totalsRowDxfId="1">
-      <calculatedColumnFormula>B3*D3</calculatedColumnFormula>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4C9A0F86-AFB2-44A7-BFCD-E6FB962C0151}" name="Table1" displayName="Table1" ref="B4:L24" totalsRowCount="1" headerRowDxfId="16">
+  <autoFilter ref="B4:L23" xr:uid="{7ABD7FDF-07E0-45E6-8BBE-37654BB48947}"/>
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{E12AEBC6-C6D6-440C-82A2-8E22CAE994D1}" name="Part" totalsRowLabel="Total" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{6CB6176A-8954-4CF0-A16D-E7AABE893E3A}" name="Qty." dataDxfId="14"/>
+    <tableColumn id="7" xr3:uid="{4FA4A9E9-81DC-45FD-81DD-2CAEBE28A1E7}" name="Website" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{4B2E9FAB-EBE7-42F2-AC44-6D012A983ED8}" name=" Website Part Number" dataDxfId="12"/>
+    <tableColumn id="9" xr3:uid="{6D91D006-4AD5-46C5-BF14-23C6DED0A84A}" name="Manufacturer" dataDxfId="11"/>
+    <tableColumn id="10" xr3:uid="{5DEF812B-4227-4C34-8B81-B275EB571E8D}" name="Manufacturer Part Number" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{699020E1-B7BD-4D2A-B433-82F0013FE45A}" name="Unit Price" totalsRowFunction="sum" dataDxfId="9" totalsRowDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{797E2835-45FA-4209-982E-97163C44FAC0}" name="Total" totalsRowFunction="sum" dataDxfId="8" totalsRowDxfId="3">
+      <calculatedColumnFormula>C5*H5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{DD13EB28-1113-45D6-8706-D15A11A54393}" name="Ordered?" dataDxfId="3" totalsRowDxfId="0"/>
+    <tableColumn id="11" xr3:uid="{0EE46E7C-3C8F-4C65-958E-57854C1E444B}" name="Description" dataDxfId="7" totalsRowDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{ADCA7670-0DF5-4BCD-ACC9-8A9122669C39}" name="Ordered?" dataDxfId="6" totalsRowDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{DD13EB28-1113-45D6-8706-D15A11A54393}" name="Paid?" dataDxfId="5" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -537,172 +1131,777 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91E1BD2E-BE66-4D4A-BED6-FB2102176C8D}">
-  <dimension ref="A1:F18"/>
+  <dimension ref="B1:L34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.21875" customWidth="1"/>
-    <col min="3" max="3" width="25.21875" customWidth="1"/>
-    <col min="4" max="5" width="14.6640625" customWidth="1"/>
-    <col min="6" max="6" width="13" customWidth="1"/>
+    <col min="1" max="1" width="2.21875" customWidth="1"/>
+    <col min="2" max="2" width="25.21875" customWidth="1"/>
+    <col min="3" max="3" width="7.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" customWidth="1"/>
+    <col min="5" max="7" width="25.21875" customWidth="1"/>
+    <col min="8" max="8" width="11.21875" customWidth="1"/>
+    <col min="9" max="9" width="10.6640625" customWidth="1"/>
+    <col min="10" max="10" width="47.109375" customWidth="1"/>
+    <col min="11" max="11" width="14.6640625" customWidth="1"/>
+    <col min="12" max="12" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="2:12" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="14"/>
+    </row>
+    <row r="2" spans="2:12" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="11"/>
+    </row>
+    <row r="3" spans="2:12" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="23"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="11"/>
+    </row>
+    <row r="4" spans="2:12" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="C5" s="4">
+        <v>12</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="18">
+        <v>169</v>
+      </c>
+      <c r="H5" s="6">
+        <v>5.95</v>
+      </c>
+      <c r="I5" s="6">
+        <f>C5*H5</f>
+        <v>71.400000000000006</v>
+      </c>
+      <c r="J5" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+    </row>
+    <row r="6" spans="2:12" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="4">
+        <v>4</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="F6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="6">
+        <v>4.2</v>
+      </c>
+      <c r="I6" s="6">
+        <f t="shared" ref="I6:I9" si="0">C6*H6</f>
+        <v>16.8</v>
+      </c>
+      <c r="J6" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+    </row>
+    <row r="7" spans="2:12" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="4">
+        <v>4</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="2">
-        <v>5.95</v>
-      </c>
-      <c r="E3" s="2">
-        <f>B3*D3</f>
-        <v>71.400000000000006</v>
-      </c>
-      <c r="F3" s="5"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="2">
-        <v>4.2</v>
-      </c>
-      <c r="E4" s="2">
-        <f t="shared" ref="E4:E7" si="0">B4*D4</f>
-        <v>16.8</v>
-      </c>
-      <c r="F4" s="5"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="2">
+      <c r="F7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="6">
         <v>10.86</v>
       </c>
-      <c r="E5" s="2">
+      <c r="I7" s="6">
         <f t="shared" si="0"/>
         <v>43.44</v>
       </c>
-      <c r="F5" s="5"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6">
+      <c r="J7" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+    </row>
+    <row r="8" spans="2:12" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="C8" s="4">
+        <v>1</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="H8" s="6">
+        <v>11.99</v>
+      </c>
+      <c r="I8" s="6">
+        <f t="shared" si="0"/>
+        <v>11.99</v>
+      </c>
+      <c r="J8" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+    </row>
+    <row r="9" spans="2:12" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="4">
         <v>4</v>
       </c>
-      <c r="C6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="2">
-        <v>12</v>
-      </c>
-      <c r="E6" s="2">
-        <f>B6*D6</f>
-        <v>48</v>
-      </c>
-      <c r="F6" s="6"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7">
-        <v>4</v>
-      </c>
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="2">
+      <c r="D9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" s="6">
         <v>0.57999999999999996</v>
       </c>
-      <c r="E7" s="2">
+      <c r="I9" s="6">
         <f t="shared" si="0"/>
         <v>2.3199999999999998</v>
       </c>
-      <c r="F7" s="5"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="J9" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+    </row>
+    <row r="10" spans="2:12" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="4">
+        <v>4</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="4">
-        <f>SUBTOTAL(109,Table1[Price])</f>
-        <v>33.589999999999996</v>
-      </c>
-      <c r="E8" s="2">
+      <c r="E10" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="6">
+        <v>0.43</v>
+      </c>
+      <c r="I10" s="6">
+        <f>C10*H10</f>
+        <v>1.72</v>
+      </c>
+      <c r="J10" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+    </row>
+    <row r="11" spans="2:12" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" s="4">
+        <v>10</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G11" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="H11" s="6">
+        <v>0.42</v>
+      </c>
+      <c r="I11" s="6">
+        <f t="shared" ref="I11:I16" si="1">C11*H11</f>
+        <v>4.2</v>
+      </c>
+      <c r="J11" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+    </row>
+    <row r="12" spans="2:12" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="4">
+        <v>25</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G12" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="H12" s="6">
+        <v>0.18</v>
+      </c>
+      <c r="I12" s="6">
+        <f t="shared" si="1"/>
+        <v>4.5</v>
+      </c>
+      <c r="J12" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+    </row>
+    <row r="13" spans="2:12" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" s="4">
+        <v>5</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G13" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="H13" s="6">
+        <v>0.53</v>
+      </c>
+      <c r="I13" s="6">
+        <f t="shared" si="1"/>
+        <v>2.6500000000000004</v>
+      </c>
+      <c r="J13" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+    </row>
+    <row r="14" spans="2:12" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="C14" s="4">
+        <v>5</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="H14" s="6">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="I14" s="6">
+        <f t="shared" si="1"/>
+        <v>2.8000000000000003</v>
+      </c>
+      <c r="J14" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+    </row>
+    <row r="15" spans="2:12" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="C15" s="4">
+        <v>5</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="H15" s="6">
+        <v>0.89</v>
+      </c>
+      <c r="I15" s="6">
+        <f t="shared" si="1"/>
+        <v>4.45</v>
+      </c>
+      <c r="J15" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+    </row>
+    <row r="16" spans="2:12" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="C16" s="4">
+        <v>5</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="G16" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="H16" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="I16" s="6">
+        <f t="shared" si="1"/>
+        <v>1.5</v>
+      </c>
+      <c r="J16" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+    </row>
+    <row r="17" spans="2:12" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="4">
+        <v>4</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17" s="19">
+        <v>3456</v>
+      </c>
+      <c r="H17" s="6">
+        <v>3.95</v>
+      </c>
+      <c r="I17" s="6">
+        <f>C17*H17</f>
+        <v>15.8</v>
+      </c>
+      <c r="J17" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+    </row>
+    <row r="18" spans="2:12" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="4">
+        <v>30</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G18" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="H18" s="6">
+        <v>0.27</v>
+      </c>
+      <c r="I18" s="6">
+        <f>C18*H18</f>
+        <v>8.1000000000000014</v>
+      </c>
+      <c r="J18" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+    </row>
+    <row r="19" spans="2:12" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="4">
+        <v>5</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G19" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="H19" s="6">
+        <v>0.11</v>
+      </c>
+      <c r="I19" s="6">
+        <f>C19*H19</f>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="J19" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+    </row>
+    <row r="20" spans="2:12" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="4">
+        <v>30</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G20" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="H20" s="6">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="I20" s="6">
+        <f>C20*H20</f>
+        <v>1.71</v>
+      </c>
+      <c r="J20" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+    </row>
+    <row r="21" spans="2:12" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="4">
+        <v>20</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G21" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="H21" s="6">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="I21" s="6">
+        <f>C21*H21</f>
+        <v>3.3400000000000003</v>
+      </c>
+      <c r="J21" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+    </row>
+    <row r="22" spans="2:12" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="4">
+        <v>10</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G22" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="H22" s="6">
+        <v>0.108</v>
+      </c>
+      <c r="I22" s="6">
+        <f>C22*H22</f>
+        <v>1.08</v>
+      </c>
+      <c r="J22" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+    </row>
+    <row r="23" spans="2:12" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="4">
+        <v>25</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G23" s="19">
+        <v>61300311121</v>
+      </c>
+      <c r="H23" s="9">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="I23" s="6">
+        <f>C23*H23</f>
+        <v>2.1999999999999997</v>
+      </c>
+      <c r="J23" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+    </row>
+    <row r="24" spans="2:12" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>10</v>
+      </c>
+      <c r="H24" s="3">
+        <f>SUBTOTAL(109,Table1[Unit Price])</f>
+        <v>41.640000000000008</v>
+      </c>
+      <c r="I24" s="2">
         <f>SUBTOTAL(109,Table1[Total])</f>
-        <v>181.95999999999998</v>
-      </c>
-      <c r="F8" s="4"/>
-    </row>
-    <row r="17" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="F18" s="2"/>
+        <v>200.55</v>
+      </c>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="2:12" ht="28.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="2:12" ht="28.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="2:12" ht="28.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="2:12" ht="28.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="2:12" ht="28.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="2:12" ht="28.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="2:12" ht="28.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="2:12" ht="28.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="33" spans="8:12" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+    </row>
+    <row r="34" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="L34" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:C1"/>
+  <mergeCells count="3">
+    <mergeCell ref="B1:L1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="E5" r:id="rId1" xr:uid="{EF85C98E-962F-43B3-BAAD-40C520ACBF9D}"/>
+    <hyperlink ref="E6" r:id="rId2" xr:uid="{35517009-01D8-4F4E-A343-ED58DC412BF7}"/>
+    <hyperlink ref="E7" r:id="rId3" xr:uid="{C51AA69F-33C9-4B13-93E2-326810A8B679}"/>
+    <hyperlink ref="E9" r:id="rId4" xr:uid="{4DB07D03-6EB4-4555-B767-EC62FD6DA813}"/>
+    <hyperlink ref="E10" r:id="rId5" xr:uid="{783D90B3-373B-4084-89E5-71E8F42647B0}"/>
+    <hyperlink ref="E23" r:id="rId6" xr:uid="{1280CA76-8066-4DD4-A516-03B19DC2E032}"/>
+    <hyperlink ref="E17" r:id="rId7" xr:uid="{172BBA7B-1018-408E-AD71-4618D31A02A9}"/>
+    <hyperlink ref="E18" r:id="rId8" xr:uid="{F1ABF977-BE67-4BA6-9720-63B315B9517E}"/>
+    <hyperlink ref="E19" r:id="rId9" xr:uid="{17C731A7-A8EA-4F10-87CB-27B55BFD2CD3}"/>
+    <hyperlink ref="E20" r:id="rId10" xr:uid="{993D8ED9-607C-4C3A-BC5F-FA51F6AFA2EC}"/>
+    <hyperlink ref="E21" r:id="rId11" xr:uid="{80C4B439-8F66-445E-8810-3F428AE74793}"/>
+    <hyperlink ref="E22" r:id="rId12" xr:uid="{A65C7B2C-98AA-46DC-926F-CE6890C194FB}"/>
+    <hyperlink ref="E11" r:id="rId13" xr:uid="{BBAADCAF-ACC2-43CA-BF29-915B5F99DF38}"/>
+    <hyperlink ref="E12" r:id="rId14" xr:uid="{7640C4AA-B1A1-41BC-947F-87B72D6FAF33}"/>
+    <hyperlink ref="E13" r:id="rId15" xr:uid="{8F79B3FF-557B-405B-9707-75C8444A0DBE}"/>
+    <hyperlink ref="E14" r:id="rId16" xr:uid="{8B677DE3-ADEB-4166-BA02-3FC7C7965E0B}"/>
+    <hyperlink ref="E15" r:id="rId17" xr:uid="{D4A801EF-1056-468F-8CF4-E44558F70FA0}"/>
+    <hyperlink ref="E16" r:id="rId18" xr:uid="{6755B4BB-1ADE-4FF7-8409-751FF5F03499}"/>
+    <hyperlink ref="E8" r:id="rId19" xr:uid="{CC6CFFCE-D85B-446D-9794-F7CE35034E03}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId20"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId21"/>
   </tableParts>
 </worksheet>
 </file>